--- a/src/main/resources/excel/pms_guest.xlsx
+++ b/src/main/resources/excel/pms_guest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AxBoot\axboot-edu\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\springboot-pms\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75A568-9A05-4D57-9EBB-920BE898A271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>황인서</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,11 +35,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>jx:area(lastCell="H2")</t>
+          <t>jx:area(lastCell="H100")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +49,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="dataList" var="data" lastCell="H2")</t>
+          <t>jx:each(items="dataList" var="data" lastCell="H100")</t>
         </r>
       </text>
     </comment>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -503,34 +502,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="19" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1">

--- a/src/main/resources/excel/pms_guest.xlsx
+++ b/src/main/resources/excel/pms_guest.xlsx
@@ -35,7 +35,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>jx:area(lastCell="H100")</t>
+          <t>jx:area(lastCell="H2")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="dataList" var="data" lastCell="H100")</t>
+          <t>jx:each(items="dataList" var="data" lastCell="H2")</t>
         </r>
       </text>
     </comment>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
